--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Travail/Enseignements/R/R/TutoR/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Travail/Enseignements/R/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6CAEB-85E3-7449-A77D-2C84CC7F5511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3605611-433A-1049-BE14-2F2A2924D240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{2F1310C2-4DD8-BE4E-918F-A2AC9BFD848E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{2F1310C2-4DD8-BE4E-918F-A2AC9BFD848E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>x</t>
   </si>
@@ -68,6 +72,27 @@
   </si>
   <si>
     <t>dthtdhdh</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -103,8 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12242EC3-36AE-C44B-9EE5-66E8CE35C297}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -583,4 +611,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AD1B1F-6D11-864D-AB88-C9A1437FB60A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>